--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H2">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I2">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J2">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N2">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O2">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P2">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q2">
-        <v>11.335384096288</v>
+        <v>83.29448873230101</v>
       </c>
       <c r="R2">
-        <v>45.341536385152</v>
+        <v>333.177954929204</v>
       </c>
       <c r="S2">
-        <v>0.0002791147959397227</v>
+        <v>0.001604122663665121</v>
       </c>
       <c r="T2">
-        <v>0.000148175827010648</v>
+        <v>0.0008295793891614793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H3">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I3">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J3">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
         <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P3">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q3">
-        <v>996.6588834232801</v>
+        <v>1557.39479100579</v>
       </c>
       <c r="R3">
-        <v>5979.953300539681</v>
+        <v>9344.368746034739</v>
       </c>
       <c r="S3">
-        <v>0.02454105114614485</v>
+        <v>0.02999300816354718</v>
       </c>
       <c r="T3">
-        <v>0.01954244598739904</v>
+        <v>0.02326653249937348</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H4">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I4">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J4">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N4">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O4">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P4">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q4">
-        <v>8.059312731829333</v>
+        <v>8.654045385164666</v>
       </c>
       <c r="R4">
-        <v>48.355876390976</v>
+        <v>51.92427231098799</v>
       </c>
       <c r="S4">
-        <v>0.0001984470406517226</v>
+        <v>0.0001666634917388694</v>
       </c>
       <c r="T4">
-        <v>0.0001580266692816328</v>
+        <v>0.0001292861831616581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H5">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I5">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J5">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N5">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O5">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P5">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q5">
-        <v>435.593465474888</v>
+        <v>406.201003106291</v>
       </c>
       <c r="R5">
-        <v>1742.373861899552</v>
+        <v>1624.804012425164</v>
       </c>
       <c r="S5">
-        <v>0.01072575752139833</v>
+        <v>0.007822801304183087</v>
       </c>
       <c r="T5">
-        <v>0.005694065718365207</v>
+        <v>0.004045597555880309</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H6">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I6">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J6">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N6">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O6">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P6">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q6">
-        <v>20.46991593177066</v>
+        <v>57.91607807615666</v>
       </c>
       <c r="R6">
-        <v>122.819495590624</v>
+        <v>347.49646845694</v>
       </c>
       <c r="S6">
-        <v>0.0005040373012212648</v>
+        <v>0.001115373836210773</v>
       </c>
       <c r="T6">
-        <v>0.0004013732613200759</v>
+        <v>0.0008652310387688596</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H7">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I7">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J7">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N7">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O7">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P7">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q7">
-        <v>5.652288674965333</v>
+        <v>3.409981037834667</v>
       </c>
       <c r="R7">
-        <v>33.913732049792</v>
+        <v>20.459886227008</v>
       </c>
       <c r="S7">
-        <v>0.0001391781157748315</v>
+        <v>6.567094592583366E-05</v>
       </c>
       <c r="T7">
-        <v>0.000110829841556517</v>
+        <v>5.094304610315895E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>630.862304</v>
       </c>
       <c r="I8">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J8">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N8">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O8">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P8">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q8">
-        <v>119.8289300458453</v>
+        <v>563.4943059990347</v>
       </c>
       <c r="R8">
-        <v>718.973580275072</v>
+        <v>3380.965835994208</v>
       </c>
       <c r="S8">
-        <v>0.002950586153350904</v>
+        <v>0.01085202635680227</v>
       </c>
       <c r="T8">
-        <v>0.002349600682939191</v>
+        <v>0.008418262767702876</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>630.862304</v>
       </c>
       <c r="I9">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J9">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
         <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P9">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q9">
         <v>10535.90832095472</v>
       </c>
       <c r="R9">
-        <v>94823.17488859249</v>
+        <v>94823.17488859248</v>
       </c>
       <c r="S9">
-        <v>0.2594290476672867</v>
+        <v>0.2029052531225557</v>
       </c>
       <c r="T9">
-        <v>0.3098814790822488</v>
+        <v>0.2361001090817836</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>630.862304</v>
       </c>
       <c r="I10">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J10">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N10">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O10">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P10">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q10">
-        <v>85.19683262221511</v>
+        <v>58.54535363161955</v>
       </c>
       <c r="R10">
-        <v>766.7714935999361</v>
+        <v>526.908182684576</v>
       </c>
       <c r="S10">
-        <v>0.002097828917843854</v>
+        <v>0.001127492707405873</v>
       </c>
       <c r="T10">
-        <v>0.002505803932783506</v>
+        <v>0.001311948050189984</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>630.862304</v>
       </c>
       <c r="I11">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J11">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N11">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O11">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P11">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q11">
-        <v>4604.757850235578</v>
+        <v>2747.984360371354</v>
       </c>
       <c r="R11">
-        <v>27628.54710141347</v>
+        <v>16487.90616222813</v>
       </c>
       <c r="S11">
-        <v>0.1133844285118863</v>
+        <v>0.05292191667129545</v>
       </c>
       <c r="T11">
-        <v>0.09028990065707626</v>
+        <v>0.04105321771819927</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>630.862304</v>
       </c>
       <c r="I12">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J12">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N12">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O12">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P12">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q12">
-        <v>216.3921489908515</v>
+        <v>391.8071977918755</v>
       </c>
       <c r="R12">
-        <v>1947.529340917664</v>
+        <v>3526.264780126879</v>
       </c>
       <c r="S12">
-        <v>0.005328293244894826</v>
+        <v>0.007545598938544657</v>
       </c>
       <c r="T12">
-        <v>0.006364512403520524</v>
+        <v>0.008780042433902586</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>630.862304</v>
       </c>
       <c r="I13">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J13">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N13">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O13">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P13">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q13">
-        <v>59.7516324526791</v>
+        <v>23.06881196617955</v>
       </c>
       <c r="R13">
-        <v>537.764692074112</v>
+        <v>207.619307695616</v>
       </c>
       <c r="S13">
-        <v>0.001471283598105533</v>
+        <v>0.0004442695388611878</v>
       </c>
       <c r="T13">
-        <v>0.001757411290793887</v>
+        <v>0.0005169510644630025</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>129.8949766666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H14">
-        <v>389.68493</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I14">
-        <v>0.2376061722458875</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J14">
-        <v>0.255202798384045</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N14">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O14">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P14">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q14">
-        <v>74.01857413387333</v>
+        <v>352.5120888868939</v>
       </c>
       <c r="R14">
-        <v>444.11144480324</v>
+        <v>2115.072533321364</v>
       </c>
       <c r="S14">
-        <v>0.001822583076112147</v>
+        <v>0.006788836087544338</v>
       </c>
       <c r="T14">
-        <v>0.001451353127067029</v>
+        <v>0.005266316556261332</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>129.8949766666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H15">
-        <v>389.68493</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I15">
-        <v>0.2376061722458875</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J15">
-        <v>0.255202798384045</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
         <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P15">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q15">
-        <v>6508.052027368652</v>
+        <v>6591.078225636796</v>
       </c>
       <c r="R15">
-        <v>58572.46824631786</v>
+        <v>59319.70403073116</v>
       </c>
       <c r="S15">
-        <v>0.1602498510993507</v>
+        <v>0.1269339438977022</v>
       </c>
       <c r="T15">
-        <v>0.191414420736197</v>
+        <v>0.1477000597038609</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>129.8949766666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H16">
-        <v>389.68493</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I16">
-        <v>0.2376061722458875</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J16">
-        <v>0.255202798384045</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N16">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O16">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P16">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q16">
-        <v>52.62625702329112</v>
+        <v>36.62493956654011</v>
       </c>
       <c r="R16">
-        <v>473.6363132096201</v>
+        <v>329.624456098861</v>
       </c>
       <c r="S16">
-        <v>0.001295833195007255</v>
+        <v>0.000705339530960699</v>
       </c>
       <c r="T16">
-        <v>0.001547840192620647</v>
+        <v>0.0008207315366987063</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>129.8949766666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H17">
-        <v>389.68493</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I17">
-        <v>0.2376061722458875</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J17">
-        <v>0.255202798384045</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N17">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O17">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P17">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q17">
-        <v>2844.368302177082</v>
+        <v>1719.090497969789</v>
       </c>
       <c r="R17">
-        <v>17066.20981306249</v>
+        <v>10314.54298781873</v>
       </c>
       <c r="S17">
-        <v>0.07003779241142362</v>
+        <v>0.03310701669047292</v>
       </c>
       <c r="T17">
-        <v>0.05577225552100783</v>
+        <v>0.02568216817686115</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>129.8949766666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H18">
-        <v>389.68493</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I18">
-        <v>0.2376061722458875</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J18">
-        <v>0.255202798384045</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N18">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O18">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P18">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q18">
-        <v>133.6658711376256</v>
+        <v>245.1076652667561</v>
       </c>
       <c r="R18">
-        <v>1202.99284023863</v>
+        <v>2205.968987400805</v>
       </c>
       <c r="S18">
-        <v>0.003291297589016055</v>
+        <v>0.004720393472323149</v>
       </c>
       <c r="T18">
-        <v>0.003931372273671352</v>
+        <v>0.005492639527924299</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>129.8949766666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H19">
-        <v>389.68493</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I19">
-        <v>0.2376061722458875</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J19">
-        <v>0.255202798384045</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N19">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O19">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P19">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q19">
-        <v>36.90870505667111</v>
+        <v>14.43144146757511</v>
       </c>
       <c r="R19">
-        <v>332.17834551004</v>
+        <v>129.882973208176</v>
       </c>
       <c r="S19">
-        <v>0.0009088148749776983</v>
+        <v>0.000277927179574806</v>
       </c>
       <c r="T19">
-        <v>0.001085556533481236</v>
+        <v>0.0003233954587403915</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>93.19123099999999</v>
+        <v>126.3423615</v>
       </c>
       <c r="H20">
-        <v>186.382462</v>
+        <v>252.684723</v>
       </c>
       <c r="I20">
-        <v>0.1704670361627196</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J20">
-        <v>0.1220609836569967</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N20">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O20">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P20">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q20">
-        <v>53.10353192565399</v>
+        <v>338.5518560563178</v>
       </c>
       <c r="R20">
-        <v>212.414127702616</v>
+        <v>1354.207424225271</v>
       </c>
       <c r="S20">
-        <v>0.001307585287909319</v>
+        <v>0.006519983655475986</v>
       </c>
       <c r="T20">
-        <v>0.0006941678988052006</v>
+        <v>0.00337183943645207</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>93.19123099999999</v>
+        <v>126.3423615</v>
       </c>
       <c r="H21">
-        <v>186.382462</v>
+        <v>252.684723</v>
       </c>
       <c r="I21">
-        <v>0.1704670361627196</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J21">
-        <v>0.1220609836569967</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
         <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P21">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q21">
-        <v>4669.105729922865</v>
+        <v>6330.057427953022</v>
       </c>
       <c r="R21">
-        <v>28014.63437953719</v>
+        <v>37980.34456771813</v>
       </c>
       <c r="S21">
-        <v>0.1149688869788872</v>
+        <v>0.1219070881762129</v>
       </c>
       <c r="T21">
-        <v>0.09155163120913153</v>
+        <v>0.09456721424838894</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>93.19123099999999</v>
+        <v>126.3423615</v>
       </c>
       <c r="H22">
-        <v>186.382462</v>
+        <v>252.684723</v>
       </c>
       <c r="I22">
-        <v>0.1704670361627196</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J22">
-        <v>0.1220609836569967</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N22">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O22">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P22">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q22">
-        <v>37.75593021975133</v>
+        <v>35.17451360988949</v>
       </c>
       <c r="R22">
-        <v>226.535581318508</v>
+        <v>211.047081659337</v>
       </c>
       <c r="S22">
-        <v>0.0009296763717297645</v>
+        <v>0.0006774065766387265</v>
       </c>
       <c r="T22">
-        <v>0.0007403167114601798</v>
+        <v>0.0005254858747316217</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>93.19123099999999</v>
+        <v>126.3423615</v>
       </c>
       <c r="H23">
-        <v>186.382462</v>
+        <v>252.684723</v>
       </c>
       <c r="I23">
-        <v>0.1704670361627196</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J23">
-        <v>0.1220609836569967</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N23">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O23">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P23">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q23">
-        <v>2040.649995091641</v>
+        <v>1651.01083668989</v>
       </c>
       <c r="R23">
-        <v>8162.599980366565</v>
+        <v>6604.04334675956</v>
       </c>
       <c r="S23">
-        <v>0.05024757891979316</v>
+        <v>0.03179590800542278</v>
       </c>
       <c r="T23">
-        <v>0.02667532022677533</v>
+        <v>0.01644339958435981</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>93.19123099999999</v>
+        <v>126.3423615</v>
       </c>
       <c r="H24">
-        <v>186.382462</v>
+        <v>252.684723</v>
       </c>
       <c r="I24">
-        <v>0.1704670361627196</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J24">
-        <v>0.1220609836569967</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N24">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O24">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P24">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q24">
-        <v>95.89660349967365</v>
+        <v>235.4008773761975</v>
       </c>
       <c r="R24">
-        <v>575.3796209980419</v>
+        <v>1412.405264257185</v>
       </c>
       <c r="S24">
-        <v>0.002361292805762888</v>
+        <v>0.004533455792728545</v>
       </c>
       <c r="T24">
-        <v>0.001880336618111981</v>
+        <v>0.00351674616833489</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>93.19123099999999</v>
+        <v>126.3423615</v>
       </c>
       <c r="H25">
-        <v>186.382462</v>
+        <v>252.684723</v>
       </c>
       <c r="I25">
-        <v>0.1704670361627196</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J25">
-        <v>0.1220609836569967</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N25">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O25">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P25">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q25">
-        <v>26.47960488628933</v>
+        <v>13.859925513032</v>
       </c>
       <c r="R25">
-        <v>158.877629317736</v>
+        <v>83.159553078192</v>
       </c>
       <c r="S25">
-        <v>0.0006520157986372436</v>
+        <v>0.00026692066870858</v>
       </c>
       <c r="T25">
-        <v>0.0005192109927125439</v>
+        <v>0.0002070588711675328</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>17.22153466666667</v>
+        <v>120.618675</v>
       </c>
       <c r="H26">
-        <v>51.664604</v>
+        <v>361.856025</v>
       </c>
       <c r="I26">
-        <v>0.03150193361862766</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J26">
-        <v>0.03383490225861063</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N26">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O26">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P26">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q26">
-        <v>9.813415985245333</v>
+        <v>323.2144453489875</v>
       </c>
       <c r="R26">
-        <v>58.88049591147199</v>
+        <v>1939.286672093925</v>
       </c>
       <c r="S26">
-        <v>0.0002416388873042536</v>
+        <v>0.006224608913497077</v>
       </c>
       <c r="T26">
-        <v>0.0001924210530134684</v>
+        <v>0.004828627551863459</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>17.22153466666667</v>
+        <v>120.618675</v>
       </c>
       <c r="H27">
-        <v>51.664604</v>
+        <v>361.856025</v>
       </c>
       <c r="I27">
-        <v>0.03150193361862766</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J27">
-        <v>0.03383490225861063</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N27">
         <v>150.307245</v>
       </c>
       <c r="O27">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P27">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q27">
-        <v>862.8404768062202</v>
+        <v>6043.286911600125</v>
       </c>
       <c r="R27">
-        <v>7765.564291255981</v>
+        <v>54389.58220440112</v>
       </c>
       <c r="S27">
-        <v>0.0212459976271264</v>
+        <v>0.1163843328108361</v>
       </c>
       <c r="T27">
-        <v>0.02537781034341</v>
+        <v>0.1354245552994725</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>17.22153466666667</v>
+        <v>120.618675</v>
       </c>
       <c r="H28">
-        <v>51.664604</v>
+        <v>361.856025</v>
       </c>
       <c r="I28">
-        <v>0.03150193361862766</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J28">
-        <v>0.03383490225861063</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N28">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O28">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P28">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q28">
-        <v>6.977212922015112</v>
+        <v>33.58100303827499</v>
       </c>
       <c r="R28">
-        <v>62.794916298136</v>
+        <v>302.229027344475</v>
       </c>
       <c r="S28">
-        <v>0.000171802150188627</v>
+        <v>0.0006467180345560436</v>
       </c>
       <c r="T28">
-        <v>0.00020521335173785</v>
+        <v>0.0007525196916001628</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>17.22153466666667</v>
+        <v>120.618675</v>
       </c>
       <c r="H29">
-        <v>51.664604</v>
+        <v>361.856025</v>
       </c>
       <c r="I29">
-        <v>0.03150193361862766</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J29">
-        <v>0.03383490225861063</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N29">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O29">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P29">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q29">
-        <v>377.1076340112287</v>
+        <v>1576.215112396612</v>
       </c>
       <c r="R29">
-        <v>2262.645804067372</v>
+        <v>9457.290674379674</v>
       </c>
       <c r="S29">
-        <v>0.009285642146773309</v>
+        <v>0.03035545836331379</v>
       </c>
       <c r="T29">
-        <v>0.007394310823566317</v>
+        <v>0.0235476966729132</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>17.22153466666667</v>
+        <v>120.618675</v>
       </c>
       <c r="H30">
-        <v>51.664604</v>
+        <v>361.856025</v>
       </c>
       <c r="I30">
-        <v>0.03150193361862766</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J30">
-        <v>0.03383490225861063</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N30">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O30">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P30">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q30">
-        <v>17.72148155855156</v>
+        <v>224.736514228875</v>
       </c>
       <c r="R30">
-        <v>159.493334026964</v>
+        <v>2022.628628059875</v>
       </c>
       <c r="S30">
-        <v>0.0004363617206923276</v>
+        <v>0.004328076698882913</v>
       </c>
       <c r="T30">
-        <v>0.0005212231114398239</v>
+        <v>0.005036140587761786</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>17.22153466666667</v>
+        <v>120.618675</v>
       </c>
       <c r="H31">
-        <v>51.664604</v>
+        <v>361.856025</v>
       </c>
       <c r="I31">
-        <v>0.03150193361862766</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J31">
-        <v>0.03383490225861063</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N31">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O31">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P31">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q31">
-        <v>4.893372784279111</v>
+        <v>13.2320294724</v>
       </c>
       <c r="R31">
-        <v>44.040355058512</v>
+        <v>119.0882652516</v>
       </c>
       <c r="S31">
-        <v>0.0001204910865427418</v>
+        <v>0.0002548283648295024</v>
       </c>
       <c r="T31">
-        <v>0.0001439235754431684</v>
+        <v>0.0002965177283854653</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>76.19421933333332</v>
+        <v>142.588219</v>
       </c>
       <c r="H32">
-        <v>228.582658</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I32">
-        <v>0.1393758039582664</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J32">
-        <v>0.1496976903460524</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N32">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O32">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P32">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q32">
-        <v>43.41805677959066</v>
+        <v>382.0848812788315</v>
       </c>
       <c r="R32">
-        <v>260.508340677544</v>
+        <v>2292.509287672989</v>
       </c>
       <c r="S32">
-        <v>0.001069096728897191</v>
+        <v>0.007358362201765797</v>
       </c>
       <c r="T32">
-        <v>0.0008513394538546646</v>
+        <v>0.005708116117463077</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>76.19421933333332</v>
+        <v>142.588219</v>
       </c>
       <c r="H33">
-        <v>228.582658</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I33">
-        <v>0.1393758039582664</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J33">
-        <v>0.1496976903460524</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N33">
         <v>150.307245</v>
       </c>
       <c r="O33">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P33">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q33">
-        <v>3817.51439763969</v>
+        <v>7144.014122448884</v>
       </c>
       <c r="R33">
-        <v>34357.62957875721</v>
+        <v>64296.12710203995</v>
       </c>
       <c r="S33">
-        <v>0.09399988064304617</v>
+        <v>0.1375826316696016</v>
       </c>
       <c r="T33">
-        <v>0.1122804956081063</v>
+        <v>0.1600908495224209</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>76.19421933333332</v>
+        <v>142.588219</v>
       </c>
       <c r="H34">
-        <v>228.582658</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I34">
-        <v>0.1393758039582664</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J34">
-        <v>0.1496976903460524</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N34">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O34">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P34">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q34">
-        <v>30.86968159373022</v>
+        <v>39.69746322832032</v>
       </c>
       <c r="R34">
-        <v>277.827134343572</v>
+        <v>357.2771690548829</v>
       </c>
       <c r="S34">
-        <v>0.0007601140645582331</v>
+        <v>0.0007645115712183598</v>
       </c>
       <c r="T34">
-        <v>0.0009079371516585449</v>
+        <v>0.0008895839934213874</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>76.19421933333332</v>
+        <v>142.588219</v>
       </c>
       <c r="H35">
-        <v>228.582658</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I35">
-        <v>0.1393758039582664</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J35">
-        <v>0.1496976903460524</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N35">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O35">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P35">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q35">
-        <v>1668.458841460932</v>
+        <v>1863.307697896016</v>
       </c>
       <c r="R35">
-        <v>10010.75304876559</v>
+        <v>11179.8461873761</v>
       </c>
       <c r="S35">
-        <v>0.04108299684531152</v>
+        <v>0.03588441628092472</v>
       </c>
       <c r="T35">
-        <v>0.03271507165967938</v>
+        <v>0.02783668557246976</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>76.19421933333332</v>
+        <v>142.588219</v>
       </c>
       <c r="H36">
-        <v>228.582658</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I36">
-        <v>0.1393758039582664</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J36">
-        <v>0.1496976903460524</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N36">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O36">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P36">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q36">
-        <v>78.4061629186531</v>
+        <v>265.6701319937683</v>
       </c>
       <c r="R36">
-        <v>705.655466267878</v>
+        <v>2391.031187943914</v>
       </c>
       <c r="S36">
-        <v>0.001930620081115996</v>
+        <v>0.005116394689206409</v>
       </c>
       <c r="T36">
-        <v>0.002306077178563977</v>
+        <v>0.005953425678424724</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>76.19421933333332</v>
+        <v>142.588219</v>
       </c>
       <c r="H37">
-        <v>228.582658</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I37">
-        <v>0.1393758039582664</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J37">
-        <v>0.1496976903460524</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N37">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O37">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P37">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q37">
-        <v>21.65002866595822</v>
+        <v>15.64211774192533</v>
       </c>
       <c r="R37">
-        <v>194.850257993624</v>
+        <v>140.779059677328</v>
       </c>
       <c r="S37">
-        <v>0.0005330955953373408</v>
+        <v>0.0003012429268661837</v>
       </c>
       <c r="T37">
-        <v>0.000636769294189557</v>
+        <v>0.0003505256113318211</v>
       </c>
     </row>
   </sheetData>
